--- a/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
@@ -335,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活跃微信客户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐二手车评估数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>终身免费保养总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家虚出台次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,10 +1401,10 @@
   <dimension ref="A1:AT42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL21" sqref="AL21"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="24"/>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="24"/>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="24"/>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="24"/>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="24"/>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="63" t="s">
         <v>10</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="42" spans="1:38" ht="18" customHeight="1" thickBot="1">
       <c r="A42" s="29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B42" s="50"/>
       <c r="C42" s="25"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>林勇</t>
   </si>
@@ -347,15 +347,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>终身免费保养台次（含赠送）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身免费保养总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转介绍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>其中老客户转介绍交车台次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>终身免费保养台次（含赠送）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终身免费保养总金额</t>
+    <t>预留订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -699,10 +707,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -714,10 +720,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -726,10 +730,27 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -739,56 +760,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -798,34 +772,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -886,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,13 +870,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,34 +879,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,7 +945,7 @@
     <xf numFmtId="10" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,13 +957,13 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,13 +972,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,10 +1333,10 @@
   <dimension ref="A1:AT42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1419,287 +1351,287 @@
     <col min="37" max="37" width="10.625" style="2" customWidth="1"/>
     <col min="38" max="38" width="7.5" style="2" customWidth="1"/>
     <col min="39" max="39" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.125" style="21" customWidth="1"/>
-    <col min="44" max="44" width="14.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="16.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.125" style="17" customWidth="1"/>
+    <col min="44" max="44" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="16.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="59"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="26"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="21"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="26"/>
+      <c r="AK2" s="21"/>
     </row>
     <row r="3" spans="1:46" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="30">
         <v>2</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="30">
         <v>3</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="30">
         <v>4</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="30">
         <v>5</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="30">
         <v>6</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="30">
         <v>7</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="30">
         <v>8</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="30">
         <v>9</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="30">
         <v>10</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="30">
         <v>11</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="30">
         <v>12</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="30">
         <v>13</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="30">
         <v>14</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="30">
         <v>15</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="30">
         <v>16</v>
       </c>
-      <c r="S3" s="35">
+      <c r="S3" s="30">
         <v>17</v>
       </c>
-      <c r="T3" s="35">
+      <c r="T3" s="30">
         <v>18</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="30">
         <v>19</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3" s="30">
         <v>20</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="30">
         <v>21</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="30">
         <v>22</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="Y3" s="30">
         <v>23</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="30">
         <v>24</v>
       </c>
-      <c r="AA3" s="35">
+      <c r="AA3" s="30">
         <v>25</v>
       </c>
-      <c r="AB3" s="35">
+      <c r="AB3" s="30">
         <v>26</v>
       </c>
-      <c r="AC3" s="35">
+      <c r="AC3" s="30">
         <v>27</v>
       </c>
-      <c r="AD3" s="35">
+      <c r="AD3" s="30">
         <v>28</v>
       </c>
-      <c r="AE3" s="35">
+      <c r="AE3" s="30">
         <v>29</v>
       </c>
-      <c r="AF3" s="35">
+      <c r="AF3" s="30">
         <v>30</v>
       </c>
-      <c r="AG3" s="35">
+      <c r="AG3" s="30">
         <v>31</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AH3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="36" t="s">
+      <c r="AI3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="36" t="s">
+      <c r="AK3" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="38">
-        <f t="shared" ref="AH4:AH41" si="0">SUM(C4:AG4)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="40" t="e">
+      <c r="C4" s="19"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="33">
+        <f t="shared" ref="AH4:AH42" si="0">SUM(C4:AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="35" t="e">
         <f>AH4/AI4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL4"/>
-      <c r="AM4" s="34" t="s">
+      <c r="AM4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AN4" s="41" t="s">
+      <c r="AN4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="AO4" s="41" t="s">
+      <c r="AO4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AP4" s="41" t="s">
+      <c r="AP4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="41" t="s">
+      <c r="AQ4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AR4" s="41" t="s">
+      <c r="AR4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AS4" s="41" t="s">
+      <c r="AS4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AT4" s="41" t="s">
+      <c r="AT4" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1714,50 +1646,50 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="38">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="33">
         <f>SUM(C5:AG5)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="40" t="e">
-        <f t="shared" ref="AK5:AK41" si="1">AH5/AI5</f>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="35" t="e">
+        <f t="shared" ref="AK5:AK42" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
-      <c r="AM5" s="34" t="s">
+      <c r="AM5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="43"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="38"/>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1772,71 +1704,71 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="38">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="33">
         <f>SUM(C6:AG6)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="40" t="e">
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL6"/>
-      <c r="AM6" s="34" t="s">
+      <c r="AM6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN6" s="42">
-        <f>AH9+AH22</f>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="43" t="e">
-        <f>AH9/(AH9+AH22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP6" s="43" t="e">
+      <c r="AN6" s="37">
+        <f>AH9+AH23</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="38" t="e">
+        <f>AH9/(AH9+AH23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP6" s="38" t="e">
         <f>AH5/AH4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ6" s="43" t="e">
+      <c r="AQ6" s="38" t="e">
         <f>(AH8-AN25)/AH5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="43" t="e">
-        <f>AH14/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS6" s="42" t="e">
-        <f>AH15/AH14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT6" s="43" t="e">
-        <f>AH35/AH9</f>
+      <c r="AR6" s="38" t="e">
+        <f>AH15/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS6" s="37" t="e">
+        <f>AH16/AH15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT6" s="38" t="e">
+        <f>AH36/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1851,73 +1783,73 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="38">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="33">
         <f>SUM(C7:AG7)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="40" t="e">
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL7"/>
-      <c r="AM7" s="34" t="s">
+      <c r="AM7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN7" s="44" t="e">
+      <c r="AN7" s="39" t="e">
         <f t="shared" ref="AN7:AT7" si="2">AN6/AN5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="44" t="e">
+      <c r="AO7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="44" t="e">
+      <c r="AP7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="44" t="e">
+      <c r="AQ7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="44" t="e">
+      <c r="AR7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS7" s="44" t="e">
+      <c r="AS7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT7" s="44" t="e">
+      <c r="AT7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="24"/>
+      <c r="B8" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1932,66 +1864,66 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="38">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="15" t="s">
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AK8" s="40" t="e">
+      <c r="AK8" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL8"/>
-      <c r="AM8" s="34" t="s">
+      <c r="AM8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AN8" s="45" t="s">
+      <c r="AN8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AO8" s="45" t="s">
+      <c r="AO8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AP8" s="45" t="s">
+      <c r="AP8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AQ8" s="45" t="s">
+      <c r="AQ8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AR8" s="45" t="s">
+      <c r="AR8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AS8" s="45" t="s">
+      <c r="AS8" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AT8" s="45" t="s">
+      <c r="AT8" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2006,50 +1938,50 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="38">
-        <f t="shared" ref="AH9:AH14" si="3">SUM(C9:AG9)</f>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="40" t="e">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="33">
+        <f t="shared" ref="AH9:AH15" si="3">SUM(C9:AG9)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL9"/>
-      <c r="AM9" s="34" t="s">
+      <c r="AM9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2064,71 +1996,71 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="38">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="40" t="e">
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL10"/>
-      <c r="AM10" s="34" t="s">
+      <c r="AM10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN10" s="42" t="e">
-        <f>AH36/AH35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO10" s="43" t="e">
-        <f>AH16/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP10" s="42" t="e">
-        <f>AH17/AH16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ10" s="43" t="e">
-        <f>AH18/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR10" s="43" t="e">
-        <f>AH12/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS10" s="42" t="e">
+      <c r="AN10" s="37" t="e">
+        <f>AH37/AH36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO10" s="38" t="e">
+        <f>AH17/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="37" t="e">
+        <f>AH18/AH17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="38" t="e">
+        <f>AH19/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR10" s="38" t="e">
         <f>AH13/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT10" s="42" t="e">
-        <f>AH24/AH22</f>
+      <c r="AS10" s="37" t="e">
+        <f>AH14/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT10" s="37" t="e">
+        <f>AH25/AH23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2143,71 +2075,71 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="38">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="40" t="e">
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL11"/>
-      <c r="AM11" s="34" t="s">
+      <c r="AM11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN11" s="47" t="e">
+      <c r="AN11" s="42" t="e">
         <f t="shared" ref="AN11:AT11" si="4">AN10/AN9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="47" t="e">
+      <c r="AO11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="47" t="e">
+      <c r="AP11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="47" t="e">
+      <c r="AQ11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="47" t="e">
+      <c r="AR11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="47" t="e">
+      <c r="AS11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT11" s="47" t="e">
+      <c r="AT11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2222,64 +2154,64 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="38">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="40" t="e">
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL12"/>
-      <c r="AM12" s="34" t="s">
+      <c r="AM12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AN12" s="34" t="s">
+      <c r="AN12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AO12" s="34" t="s">
+      <c r="AO12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AP12" s="34" t="s">
+      <c r="AP12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AQ12" s="34" t="s">
+      <c r="AQ12" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AR12" s="34" t="s">
+      <c r="AR12" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AS12" s="34" t="s">
+      <c r="AS12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AT12" s="34" t="s">
+      <c r="AT12" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2294,56 +2226,56 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="38">
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="40" t="e">
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL13"/>
-      <c r="AM13" s="34" t="s">
+      <c r="AM13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="43"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42">
-        <f>(AI9+AI22)*AN27/30</f>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="55">
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="37">
+        <f>(AI9+AI23)*AN27/30</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="49">
         <f>AS13*AN21*0.0075</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2358,71 +2290,71 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="38">
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="40" t="e">
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14"/>
-      <c r="AM14" s="34" t="s">
+      <c r="AM14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN14" s="46">
-        <f>AH30</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="43" t="e">
-        <f>(AH32+AH33+AH34)/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP14" s="56" t="e">
-        <f>AH31/(AH32+AH33+AH34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ14" s="44" t="e">
-        <f>AH20/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR14" s="42" t="e">
-        <f>AH21/AH20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS14" s="42">
+      <c r="AN14" s="41">
+        <f>AH31</f>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="38" t="e">
+        <f>(AH33+AH34+AH35)/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="50" t="e">
+        <f>AH32/(AH33+AH34+AH35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ14" s="39" t="e">
+        <f>AH21/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR14" s="37" t="e">
+        <f>AH22/AH21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS14" s="37">
         <f>AN22</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="55">
+      <c r="AT14" s="49">
         <f>AS14*AN21*0.0075</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2437,65 +2369,65 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="40" t="e">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15"/>
-      <c r="AM15" s="34" t="s">
+      <c r="AM15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN15" s="44" t="e">
+      <c r="AN15" s="39" t="e">
         <f>AN14/AN13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO15" s="44" t="e">
+      <c r="AO15" s="39" t="e">
         <f>AO14/AO13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP15" s="44" t="e">
+      <c r="AP15" s="39" t="e">
         <f>AP14/AP13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ15" s="44" t="e">
+      <c r="AQ15" s="39" t="e">
         <f>AQ14/AQ13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="44" t="e">
+      <c r="AR15" s="39" t="e">
         <f>AR14/AR13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2510,52 +2442,54 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="38">
-        <f>SUM(C16:AG16)</f>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="40" t="e">
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL16"/>
-      <c r="AM16" s="34" t="s">
+      <c r="AM16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" s="34" t="s">
+      <c r="AN16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
+      <c r="AO16" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
     </row>
     <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2570,53 +2504,53 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="40" t="e">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="33">
+        <f>SUM(C17:AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL17"/>
-      <c r="AM17" s="34" t="s">
+      <c r="AM17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN17" s="46">
-        <f>AI15+AI17+AI13*0.5+AI27+AI31+AI19*0.3+AI37</f>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="43"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="46"/>
+      <c r="AN17" s="41">
+        <f>AI16+AI18+AI14*0.5+AI28+AI32+AI20*0.3+AI38</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="41"/>
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2631,55 +2565,56 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="38">
-        <f>SUM(C18:AG18)</f>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="40" t="e">
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL18"/>
-      <c r="AM18" s="34" t="s">
+      <c r="AM18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="46">
-        <f>AH19*0.3+AH15+AH17+AH13*0.5+AH27+AH31+AH37</f>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="43"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="46"/>
+      <c r="AN18" s="41">
+        <f>AH20*0.3+AH16+AH18+AH14*0.5+AH28+AH32+AH38</f>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="38" t="e">
+        <f>AH12/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="41"/>
     </row>
     <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="24"/>
+      <c r="A19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2694,53 +2629,58 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="38">
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="33">
         <f>SUM(C19:AG19)</f>
         <v>0</v>
       </c>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="40" t="e">
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL19"/>
-      <c r="AM19" s="34" t="s">
+      <c r="AM19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN19" s="44" t="e">
+      <c r="AN19" s="39" t="e">
         <f>AN18/AN17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
+      <c r="AO19" s="39" t="e">
+        <f>AO18/AO17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2755,34 +2695,34 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="38">
-        <f t="shared" ref="AH20:AH21" si="5">SUM(C20:AG20)</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="40" t="e">
-        <f>AH20/AI20</f>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="33">
+        <f>SUM(C20:AG20)</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL20"/>
-      <c r="AM20" s="21"/>
+      <c r="AM20" s="17"/>
       <c r="AP20"/>
       <c r="AQ20"/>
       <c r="AR20"/>
@@ -2790,11 +2730,11 @@
       <c r="AT20"/>
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2809,34 +2749,34 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="40" t="e">
-        <f t="shared" si="1"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="33">
+        <f t="shared" ref="AH21:AH22" si="5">SUM(C21:AG21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="35" t="e">
+        <f>AH21/AI21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL21"/>
-      <c r="AM21" s="39" t="s">
+      <c r="AM21" s="34" t="s">
         <v>77</v>
       </c>
       <c r="AN21" s="1"/>
@@ -2847,13 +2787,11 @@
       <c r="AT21"/>
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="24"/>
+      <c r="A22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2868,38 +2806,38 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="40" t="e">
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL22"/>
-      <c r="AM22" s="39" t="s">
+      <c r="AM22" s="34" t="s">
         <v>69</v>
       </c>
       <c r="AN22" s="1">
-        <f>AH41-AH9-AH22-AH28</f>
+        <f>AH42-AH9-AH23-AH29</f>
         <v>0</v>
       </c>
       <c r="AP22"/>
@@ -2909,11 +2847,13 @@
       <c r="AT22"/>
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="20"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2928,34 +2868,34 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="38">
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="40" t="e">
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL23"/>
-      <c r="AM23" s="39" t="s">
+      <c r="AM23" s="34" t="s">
         <v>57</v>
       </c>
       <c r="AN23" s="1"/>
@@ -2966,11 +2906,11 @@
       <c r="AT23"/>
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2985,34 +2925,34 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="38">
-        <f>SUM(C24:AG24)</f>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="40" t="e">
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24"/>
-      <c r="AM24" s="39" t="s">
+      <c r="AM24" s="34" t="s">
         <v>78</v>
       </c>
       <c r="AN24" s="1">
@@ -3026,11 +2966,11 @@
       <c r="AT24"/>
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3045,44 +2985,44 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="38">
-        <f t="shared" ref="AH25" si="6">SUM(C25:AG25)</f>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="40" t="e">
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="33">
+        <f>SUM(C25:AG25)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25"/>
-      <c r="AM25" s="39" t="s">
+      <c r="AM25" s="34" t="s">
         <v>64</v>
       </c>
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3097,34 +3037,34 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="38">
-        <f>SUM(C26:AG26)</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="40" t="e">
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="33">
+        <f t="shared" ref="AH26" si="6">SUM(C26:AG26)</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL26"/>
-      <c r="AM26" s="39" t="s">
+      <c r="AM26" s="34" t="s">
         <v>71</v>
       </c>
       <c r="AN26" s="1">
@@ -3133,11 +3073,11 @@
       </c>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3152,44 +3092,44 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="38">
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="33">
         <f>SUM(C27:AG27)</f>
         <v>0</v>
       </c>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="40" t="e">
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27"/>
-      <c r="AM27" s="39" t="s">
+      <c r="AM27" s="34" t="s">
         <v>79</v>
       </c>
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3204,42 +3144,44 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="40" t="e">
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="33">
+        <f>SUM(C28:AG28)</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28"/>
+      <c r="AM28" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="24"/>
+      <c r="A29" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3254,40 +3196,42 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="38">
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="40" t="e">
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL29"/>
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3302,40 +3246,40 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="38">
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="40" t="e">
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL30"/>
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3350,42 +3294,40 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="38">
-        <f>SUM(C31:AG31)</f>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="40" t="e">
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL31"/>
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="24"/>
+      <c r="A32" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3400,40 +3342,42 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="40" t="e">
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="33">
+        <f>SUM(C32:AG32)</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL32"/>
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -3448,40 +3392,40 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="38">
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="38"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="40" t="e">
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL33"/>
     </row>
     <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3496,39 +3440,40 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="38">
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="40" t="e">
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL34"/>
     </row>
     <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="24"/>
+      <c r="A35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3543,45 +3488,45 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="38">
-        <f>SUM(C35:AG35)</f>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="40" t="e">
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3590,40 +3535,39 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="38">
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="33">
         <f>SUM(C36:AG36)</f>
         <v>0</v>
       </c>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="40" t="e">
-        <f>AH36/AI36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL36"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="24"/>
+      <c r="A37" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3638,48 +3582,46 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="38">
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="33">
         <f>SUM(C37:AG37)</f>
         <v>0</v>
       </c>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="40" t="e">
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="35" t="e">
         <f>AH37/AI37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL37"/>
     </row>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="24"/>
+      <c r="A38" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3688,39 +3630,42 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="33">
+        <f>SUM(C38:AG38)</f>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="35" t="e">
+        <f>AH38/AI38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL38"/>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3735,39 +3680,39 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="38">
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="38"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="40" t="e">
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3782,39 +3727,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="38">
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="40" t="e">
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="52"/>
+      <c r="A41" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="59"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3829,91 +3774,91 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="38">
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="38"/>
-      <c r="AJ41" s="15" t="s">
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AK41" s="40" t="e">
+      <c r="AK42" s="35" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" ht="18" customHeight="1" thickBot="1">
-      <c r="A42" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="38">
-        <f t="shared" ref="AH42" si="7">SUM(C42:AG42)</f>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="16"/>
-      <c r="AK42" s="40" t="e">
-        <f t="shared" ref="AK42" si="8">AH42/AI42</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B33:B37"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B8:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>林勇</t>
   </si>
@@ -368,6 +368,18 @@
   </si>
   <si>
     <t>厂家虚出台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃险台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃险金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃险渗透率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,6 +1000,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,13 +1345,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT42"/>
+  <dimension ref="A1:AT44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
+      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1360,81 +1375,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="54"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
       <c r="AI2" s="21"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="21"/>
@@ -1556,7 +1571,7 @@
       <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="19"/>
@@ -1591,7 +1606,7 @@
       <c r="AF4" s="10"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="33">
-        <f t="shared" ref="AH4:AH42" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH44" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="33"/>
@@ -1630,7 +1645,7 @@
       <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="20"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1669,7 +1684,7 @@
       <c r="AI5" s="33"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="35" t="e">
-        <f t="shared" ref="AK5:AK42" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK44" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
@@ -1735,11 +1750,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="37">
-        <f>AH9+AH23</f>
+        <f>AH9+AH25</f>
         <v>0</v>
       </c>
       <c r="AO6" s="38" t="e">
-        <f>AH9/(AH9+AH23)</f>
+        <f>AH9/(AH9+AH25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="38" t="e">
@@ -1759,7 +1774,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="38" t="e">
-        <f>AH36/AH9</f>
+        <f>AH38/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1846,7 +1861,7 @@
       <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="20"/>
@@ -1922,7 +1937,7 @@
       <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="20"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1980,7 +1995,7 @@
       <c r="A10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2027,7 +2042,7 @@
         <v>34</v>
       </c>
       <c r="AN10" s="37" t="e">
-        <f>AH37/AH36</f>
+        <f>AH39/AH38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="38" t="e">
@@ -2051,7 +2066,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" s="37" t="e">
-        <f>AH25/AH23</f>
+        <f>AH27/AH25</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2059,7 +2074,7 @@
       <c r="A11" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="20"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2138,7 +2153,7 @@
       <c r="A12" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="20"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2210,7 +2225,7 @@
       <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="20"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2262,7 +2277,7 @@
       <c r="AQ13" s="39"/>
       <c r="AR13" s="37"/>
       <c r="AS13" s="37">
-        <f>(AI9+AI23)*AN27/30</f>
+        <f>(AI9+AI25)*AN27/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="49">
@@ -2274,7 +2289,7 @@
       <c r="A14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="20"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2321,15 +2336,15 @@
         <v>34</v>
       </c>
       <c r="AN14" s="41">
-        <f>AH31</f>
+        <f>AH33</f>
         <v>0</v>
       </c>
       <c r="AO14" s="38" t="e">
-        <f>(AH33+AH34+AH35)/AH9</f>
+        <f>(AH35+AH36+AH37)/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="50" t="e">
-        <f>AH32/(AH33+AH34+AH35)</f>
+        <f>AH34/(AH35+AH36+AH37)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="39" t="e">
@@ -2353,7 +2368,7 @@
       <c r="A15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="61"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="20"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2426,7 +2441,7 @@
       <c r="A16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="20"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2478,7 +2493,9 @@
       <c r="AO16" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AP16" s="29"/>
+      <c r="AP16" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ16" s="29"/>
       <c r="AR16" s="29"/>
       <c r="AS16" s="29"/>
@@ -2488,7 +2505,7 @@
       <c r="A17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="20"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2535,7 +2552,7 @@
         <v>33</v>
       </c>
       <c r="AN17" s="41">
-        <f>AI16+AI18+AI14*0.5+AI28+AI32+AI20*0.3+AI38</f>
+        <f>AI16+AI18+AI14*0.5+AI30+AI34+AI20*0.3+AI40</f>
         <v>0</v>
       </c>
       <c r="AO17" s="38"/>
@@ -2549,7 +2566,7 @@
       <c r="A18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="62"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="20"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2596,14 +2613,17 @@
         <v>34</v>
       </c>
       <c r="AN18" s="41">
-        <f>AH20*0.3+AH16+AH18+AH14*0.5+AH28+AH32+AH38</f>
+        <f>AH20*0.3+AH16+AH18+AH14*0.5+AH30+AH34+AH40</f>
         <v>0</v>
       </c>
       <c r="AO18" s="38" t="e">
         <f>AH12/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP18" s="41"/>
+      <c r="AP18" s="41" t="e">
+        <f>AH23/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AQ18" s="37"/>
       <c r="AR18" s="37"/>
       <c r="AS18" s="37"/>
@@ -2667,7 +2687,10 @@
         <f>AO18/AO17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP19" s="39"/>
+      <c r="AP19" s="39" t="e">
+        <f>AP18/AP17</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AQ19" s="39"/>
       <c r="AR19" s="39"/>
       <c r="AS19" s="39"/>
@@ -2766,7 +2789,7 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="33">
-        <f t="shared" ref="AH21:AH22" si="5">SUM(C21:AG21)</f>
+        <f t="shared" ref="AH21:AH24" si="5">SUM(C21:AG21)</f>
         <v>0</v>
       </c>
       <c r="AI21" s="33"/>
@@ -2837,7 +2860,7 @@
         <v>69</v>
       </c>
       <c r="AN22" s="1">
-        <f>AH42-AH9-AH23-AH29</f>
+        <f>AH44-AH9-AH25-AH31</f>
         <v>0</v>
       </c>
       <c r="AP22"/>
@@ -2848,11 +2871,9 @@
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>8</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B23" s="51"/>
       <c r="C23" s="20"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2885,7 +2906,7 @@
       <c r="AF23" s="10"/>
       <c r="AG23" s="16"/>
       <c r="AH23" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI23" s="33"/>
@@ -2907,9 +2928,9 @@
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="58"/>
+        <v>90</v>
+      </c>
+      <c r="B24" s="51"/>
       <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2942,7 +2963,7 @@
       <c r="AF24" s="10"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI24" s="33"/>
@@ -2966,10 +2987,12 @@
       <c r="AT24"/>
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="58"/>
+      <c r="A25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>8</v>
+      </c>
       <c r="C25" s="20"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3002,7 +3025,7 @@
       <c r="AF25" s="10"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="33">
-        <f>SUM(C25:AG25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI25" s="33"/>
@@ -3019,9 +3042,9 @@
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="58"/>
+        <v>60</v>
+      </c>
+      <c r="B26" s="59"/>
       <c r="C26" s="20"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3054,7 +3077,7 @@
       <c r="AF26" s="10"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="33">
-        <f t="shared" ref="AH26" si="6">SUM(C26:AG26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI26" s="33"/>
@@ -3074,9 +3097,9 @@
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="58"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="59"/>
       <c r="C27" s="20"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3125,10 +3148,10 @@
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="58"/>
+      <c r="A28" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="59"/>
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3161,7 +3184,7 @@
       <c r="AF28" s="10"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="33">
-        <f>SUM(C28:AG28)</f>
+        <f t="shared" ref="AH28" si="6">SUM(C28:AG28)</f>
         <v>0</v>
       </c>
       <c r="AI28" s="33"/>
@@ -3177,8 +3200,8 @@
       <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>9</v>
+      <c r="A29" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="B29" s="59"/>
       <c r="C29" s="20"/>
@@ -3213,7 +3236,7 @@
       <c r="AF29" s="10"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:AG29)</f>
         <v>0</v>
       </c>
       <c r="AI29" s="33"/>
@@ -3225,12 +3248,10 @@
       <c r="AL29"/>
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="A30" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="59"/>
       <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3263,7 +3284,7 @@
       <c r="AF30" s="10"/>
       <c r="AG30" s="16"/>
       <c r="AH30" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:AG30)</f>
         <v>0</v>
       </c>
       <c r="AI30" s="33"/>
@@ -3276,9 +3297,9 @@
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="59"/>
+        <v>9</v>
+      </c>
+      <c r="B31" s="60"/>
       <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3323,10 +3344,12 @@
       <c r="AL31"/>
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="22"/>
+      <c r="A32" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>10</v>
+      </c>
       <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3359,7 +3382,7 @@
       <c r="AF32" s="10"/>
       <c r="AG32" s="16"/>
       <c r="AH32" s="33">
-        <f>SUM(C32:AG32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI32" s="33"/>
@@ -3372,11 +3395,9 @@
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B33" s="60"/>
       <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3421,10 +3442,10 @@
       <c r="AL33"/>
     </row>
     <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="58"/>
+      <c r="A34" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="22"/>
       <c r="C34" s="20"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3457,7 +3478,7 @@
       <c r="AF34" s="10"/>
       <c r="AG34" s="16"/>
       <c r="AH34" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C34:AG34)</f>
         <v>0</v>
       </c>
       <c r="AI34" s="33"/>
@@ -3470,9 +3491,11 @@
     </row>
     <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="58"/>
+        <v>42</v>
+      </c>
+      <c r="B35" s="58" t="s">
+        <v>12</v>
+      </c>
       <c r="C35" s="20"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3514,12 +3537,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL35"/>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="58"/>
+      <c r="A36" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="59"/>
       <c r="C36" s="20"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3552,7 +3576,7 @@
       <c r="AF36" s="10"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="33">
-        <f>SUM(C36:AG36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI36" s="33"/>
@@ -3561,10 +3585,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL36"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B37" s="59"/>
       <c r="C37" s="20"/>
@@ -3573,7 +3598,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3599,29 +3624,28 @@
       <c r="AF37" s="10"/>
       <c r="AG37" s="16"/>
       <c r="AH37" s="33">
-        <f>SUM(C37:AG37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="12"/>
       <c r="AK37" s="35" t="e">
-        <f>AH37/AI37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL37"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="43"/>
+      <c r="A38" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="59"/>
       <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3653,25 +3677,22 @@
       <c r="AI38" s="33"/>
       <c r="AJ38" s="12"/>
       <c r="AK38" s="35" t="e">
-        <f>AH38/AI38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL38"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>14</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B39" s="60"/>
       <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3697,28 +3718,29 @@
       <c r="AF39" s="10"/>
       <c r="AG39" s="16"/>
       <c r="AH39" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C39:AG39)</f>
         <v>0</v>
       </c>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="12"/>
       <c r="AK39" s="35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH39/AI39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL39"/>
     </row>
     <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="58"/>
+        <v>74</v>
+      </c>
+      <c r="B40" s="43"/>
       <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3744,21 +3766,24 @@
       <c r="AF40" s="10"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C40:AG40)</f>
         <v>0</v>
       </c>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="12"/>
       <c r="AK40" s="35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH40/AI40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL40"/>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="59"/>
+        <v>13</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>14</v>
+      </c>
       <c r="C41" s="20"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3802,11 +3827,11 @@
       </c>
     </row>
     <row r="42" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="46"/>
+      <c r="A42" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3842,10 +3867,104 @@
         <v>0</v>
       </c>
       <c r="AI42" s="33"/>
-      <c r="AJ42" s="13" t="s">
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="33"/>
+      <c r="AJ44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AK42" s="35" t="e">
+      <c r="AK44" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3853,11 +3972,11 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B35:B39"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B8:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>林勇</t>
   </si>
@@ -380,6 +380,10 @@
   </si>
   <si>
     <t>玻璃险渗透率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅新增订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,7 +1355,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
+      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2496,7 +2500,9 @@
       <c r="AP16" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="AQ16" s="29"/>
+      <c r="AQ16" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="AR16" s="29"/>
       <c r="AS16" s="29"/>
       <c r="AT16" s="29"/>
@@ -2557,7 +2563,10 @@
       </c>
       <c r="AO17" s="38"/>
       <c r="AP17" s="41"/>
-      <c r="AQ17" s="37"/>
+      <c r="AQ17" s="37">
+        <f>AI8-AN25</f>
+        <v>0</v>
+      </c>
       <c r="AR17" s="37"/>
       <c r="AS17" s="37"/>
       <c r="AT17" s="41"/>
@@ -2624,7 +2633,10 @@
         <f>AH23/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ18" s="37"/>
+      <c r="AQ18" s="37">
+        <f>AH8-AN25</f>
+        <v>0</v>
+      </c>
       <c r="AR18" s="37"/>
       <c r="AS18" s="37"/>
       <c r="AT18" s="41"/>
@@ -2691,7 +2703,10 @@
         <f>AP18/AP17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ19" s="39"/>
+      <c r="AQ19" s="39" t="e">
+        <f>AQ18/AQ17</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AR19" s="39"/>
       <c r="AS19" s="39"/>
       <c r="AT19" s="39"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>林勇</t>
   </si>
@@ -384,6 +384,10 @@
   </si>
   <si>
     <t>展厅新增订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在库超3个月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,7 +1359,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
+      <selection pane="bottomRight" activeCell="AN23" sqref="AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1766,7 +1770,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ6" s="38" t="e">
-        <f>(AH8-AN25)/AH5</f>
+        <f>(AH8-AN26)/AH5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="38" t="e">
@@ -2281,7 +2285,7 @@
       <c r="AQ13" s="39"/>
       <c r="AR13" s="37"/>
       <c r="AS13" s="37">
-        <f>(AI9+AI25)*AN27/30</f>
+        <f>(AI9+AI25)*AN28/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="49">
@@ -2564,7 +2568,7 @@
       <c r="AO17" s="38"/>
       <c r="AP17" s="41"/>
       <c r="AQ17" s="37">
-        <f>AI8-AN25</f>
+        <f>AI8-AN26</f>
         <v>0</v>
       </c>
       <c r="AR17" s="37"/>
@@ -2634,7 +2638,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ18" s="37">
-        <f>AH8-AN25</f>
+        <f>AH8-AN26</f>
         <v>0</v>
       </c>
       <c r="AR18" s="37"/>
@@ -2932,7 +2936,7 @@
       </c>
       <c r="AL23"/>
       <c r="AM23" s="34" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AP23"/>
@@ -2989,12 +2993,9 @@
       </c>
       <c r="AL24"/>
       <c r="AM24" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN24" s="1">
-        <f>AN22+AN23</f>
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AN24" s="1"/>
       <c r="AP24"/>
       <c r="AQ24"/>
       <c r="AR24"/>
@@ -3051,9 +3052,12 @@
       </c>
       <c r="AL25"/>
       <c r="AM25" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN25" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="AN25" s="1">
+        <f>AN22+AN24</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
@@ -3103,12 +3107,9 @@
       </c>
       <c r="AL26"/>
       <c r="AM26" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN26" s="1">
-        <f>AH8-AH9</f>
-        <v>0</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AN26" s="1"/>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="25" t="s">
@@ -3158,9 +3159,12 @@
       </c>
       <c r="AL27"/>
       <c r="AM27" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN27" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="AN27" s="1">
+        <f>AH8-AH9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="24" t="s">
@@ -3210,7 +3214,7 @@
       </c>
       <c r="AL28"/>
       <c r="AM28" s="34" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AN28" s="1"/>
     </row>
@@ -3261,6 +3265,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL29"/>
+      <c r="AM29" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="25" t="s">

--- a/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t>林勇</t>
   </si>
@@ -211,14 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>延保总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延保台次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按揭净收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,14 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>终身免费保养台次（含赠送）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终身免费保养总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转介绍率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预留订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厂家虚出台次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,6 +368,62 @@
   </si>
   <si>
     <t>在库超3个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延保无忧车服务购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延保无忧车服务购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主延保无忧车服务购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主延保无忧车服务购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家延保无忧车服务购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家延保无忧车服务购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机油套餐购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机油套餐购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划痕无忧服务购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划痕无忧服务购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机油套餐渗透率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧划痕渗透率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费保养台次（含赠送）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费保养总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,6 +1047,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1353,13 +1395,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT44"/>
+  <dimension ref="A1:AT51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN23" sqref="AN23"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1383,81 +1425,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="56"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="57"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
       <c r="AI2" s="21"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="21"/>
@@ -1572,14 +1614,14 @@
         <v>3</v>
       </c>
       <c r="AK3" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="19"/>
@@ -1614,7 +1656,7 @@
       <c r="AF4" s="10"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="33">
-        <f t="shared" ref="AH4:AH44" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH51" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="33"/>
@@ -1628,7 +1670,7 @@
         <v>27</v>
       </c>
       <c r="AN4" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AO4" s="36" t="s">
         <v>30</v>
@@ -1646,14 +1688,14 @@
         <v>32</v>
       </c>
       <c r="AT4" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="20"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1692,7 +1734,7 @@
       <c r="AI5" s="33"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="35" t="e">
-        <f t="shared" ref="AK5:AK44" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK51" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
@@ -1709,7 +1751,7 @@
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="20"/>
@@ -1758,11 +1800,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="37">
-        <f>AH9+AH25</f>
+        <f>AH9+AH32</f>
         <v>0</v>
       </c>
       <c r="AO6" s="38" t="e">
-        <f>AH9/(AH9+AH25)</f>
+        <f>AH9/(AH9+AH32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="38" t="e">
@@ -1774,15 +1816,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="38" t="e">
-        <f>AH15/AH9</f>
+        <f>AH14/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="37" t="e">
-        <f>AH16/AH15</f>
+        <f>AH15/AH14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="38" t="e">
-        <f>AH38/AH9</f>
+        <f>AH45/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1834,7 +1876,7 @@
       </c>
       <c r="AL7"/>
       <c r="AM7" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AN7" s="39" t="e">
         <f t="shared" ref="AN7:AT7" si="2">AN6/AN5</f>
@@ -1869,7 +1911,7 @@
       <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="63" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="20"/>
@@ -1920,7 +1962,7 @@
         <v>27</v>
       </c>
       <c r="AN8" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AO8" s="40" t="s">
         <v>35</v>
@@ -1935,17 +1977,17 @@
         <v>38</v>
       </c>
       <c r="AS8" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AT8" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="20"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1978,7 +2020,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="33">
-        <f t="shared" ref="AH9:AH15" si="3">SUM(C9:AG9)</f>
+        <f t="shared" ref="AH9:AH14" si="3">SUM(C9:AG9)</f>
         <v>0</v>
       </c>
       <c r="AI9" s="33"/>
@@ -2001,9 +2043,9 @@
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="62"/>
+        <v>79</v>
+      </c>
+      <c r="B10" s="64"/>
       <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2050,39 +2092,39 @@
         <v>34</v>
       </c>
       <c r="AN10" s="37" t="e">
-        <f>AH39/AH38</f>
+        <f>AH46/AH45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="38" t="e">
-        <f>AH17/AH9</f>
+        <f>AH16/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="37" t="e">
-        <f>AH18/AH17</f>
+        <f>AH17/AH16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="38" t="e">
-        <f>AH19/AH9</f>
+        <f>AH18/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="38" t="e">
+        <f>AH12/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS10" s="37" t="e">
         <f>AH13/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="37" t="e">
-        <f>AH14/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AT10" s="37" t="e">
-        <f>AH27/AH25</f>
+        <f>AH34/AH32</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="62"/>
+        <v>82</v>
+      </c>
+      <c r="B11" s="64"/>
       <c r="C11" s="20"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2126,7 +2168,7 @@
       </c>
       <c r="AL11"/>
       <c r="AM11" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AN11" s="42" t="e">
         <f t="shared" ref="AN11:AT11" si="4">AN10/AN9</f>
@@ -2159,9 +2201,9 @@
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="62"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="64"/>
       <c r="C12" s="20"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2208,32 +2250,32 @@
         <v>27</v>
       </c>
       <c r="AN12" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AO12" s="29" t="s">
         <v>41</v>
       </c>
       <c r="AP12" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AQ12" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AR12" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AS12" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT12" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="62"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="64"/>
       <c r="C13" s="20"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2285,7 +2327,7 @@
       <c r="AQ13" s="39"/>
       <c r="AR13" s="37"/>
       <c r="AS13" s="37">
-        <f>(AI9+AI25)*AN28/30</f>
+        <f>(AI9+AI32)*AN28/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="49">
@@ -2294,10 +2336,10 @@
       </c>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="62"/>
+      <c r="A14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="64"/>
       <c r="C14" s="20"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2344,23 +2386,23 @@
         <v>34</v>
       </c>
       <c r="AN14" s="41">
-        <f>AH33</f>
+        <f>AH40</f>
         <v>0</v>
       </c>
       <c r="AO14" s="38" t="e">
-        <f>(AH35+AH36+AH37)/AH9</f>
+        <f>(AH42+AH43+AH44)/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="50" t="e">
-        <f>AH34/(AH35+AH36+AH37)</f>
+        <f>AH41/(AH42+AH43+AH44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="39" t="e">
-        <f>AH21/AH9</f>
+        <f>AH24/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="37" t="e">
-        <f>AH22/AH21</f>
+        <f>AH25/AH24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" s="37">
@@ -2373,10 +2415,10 @@
       </c>
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="62"/>
+      <c r="A15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="64"/>
       <c r="C15" s="20"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2409,7 +2451,7 @@
       <c r="AF15" s="10"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI15" s="33"/>
@@ -2420,7 +2462,7 @@
       </c>
       <c r="AL15"/>
       <c r="AM15" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AN15" s="39" t="e">
         <f>AN14/AN13</f>
@@ -2446,10 +2488,10 @@
       <c r="AT15" s="39"/>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="62"/>
+      <c r="A16" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="64"/>
       <c r="C16" s="20"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2482,7 +2524,7 @@
       <c r="AF16" s="10"/>
       <c r="AG16" s="16"/>
       <c r="AH16" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:AG16)</f>
         <v>0</v>
       </c>
       <c r="AI16" s="33"/>
@@ -2496,26 +2538,30 @@
         <v>27</v>
       </c>
       <c r="AN16" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO16" s="29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AP16" s="29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AQ16" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR16" s="29"/>
-      <c r="AS16" s="29"/>
+        <v>87</v>
+      </c>
+      <c r="AR16" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS16" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="AT16" s="29"/>
     </row>
     <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="62"/>
+      <c r="A17" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="65"/>
       <c r="C17" s="20"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2548,7 +2594,7 @@
       <c r="AF17" s="10"/>
       <c r="AG17" s="16"/>
       <c r="AH17" s="33">
-        <f>SUM(C17:AG17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI17" s="33"/>
@@ -2562,24 +2608,24 @@
         <v>33</v>
       </c>
       <c r="AN17" s="41">
-        <f>AI16+AI18+AI14*0.5+AI30+AI34+AI20*0.3+AI40</f>
+        <f>AI15+AI17+AI13*0.5+AI37+AI41+AI19*0.3+AI47</f>
         <v>0</v>
       </c>
       <c r="AO17" s="38"/>
-      <c r="AP17" s="41"/>
+      <c r="AP17" s="39"/>
       <c r="AQ17" s="37">
         <f>AI8-AN26</f>
         <v>0</v>
       </c>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
       <c r="AT17" s="41"/>
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="63"/>
+      <c r="A18" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="27"/>
       <c r="C18" s="20"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2612,7 +2658,7 @@
       <c r="AF18" s="10"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:AG18)</f>
         <v>0</v>
       </c>
       <c r="AI18" s="33"/>
@@ -2626,30 +2672,38 @@
         <v>34</v>
       </c>
       <c r="AN18" s="41">
-        <f>AH20*0.3+AH16+AH18+AH14*0.5+AH30+AH34+AH40</f>
+        <f>AH19*0.3+AH15+AH17+AH13*0.5+AH37+AH41+AH47</f>
         <v>0</v>
       </c>
       <c r="AO18" s="38" t="e">
-        <f>AH12/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP18" s="41" t="e">
-        <f>AH23/AH9</f>
+        <f>AH11/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP18" s="39" t="e">
+        <f>AH26/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ18" s="37">
         <f>AH8-AN26</f>
         <v>0</v>
       </c>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
+      <c r="AR18" s="39" t="e">
+        <f>AH28/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS18" s="39" t="e">
+        <f>AH30/AH45</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT18" s="41"/>
     </row>
     <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="27"/>
+      <c r="A19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="C19" s="20"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2693,7 +2747,7 @@
       </c>
       <c r="AL19"/>
       <c r="AM19" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AN19" s="39" t="e">
         <f>AN18/AN17</f>
@@ -2711,17 +2765,21 @@
         <f>AQ18/AQ17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
+      <c r="AR19" s="39" t="e">
+        <f t="shared" ref="AR19:AS19" si="5">AR18/AR17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS19" s="39" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT19" s="39"/>
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>7</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B20" s="53"/>
       <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2754,7 +2812,7 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="33">
-        <f>SUM(C20:AG20)</f>
+        <f t="shared" ref="AH20:AH23" si="6">SUM(C20:AG20)</f>
         <v>0</v>
       </c>
       <c r="AI20" s="33"/>
@@ -2773,9 +2831,9 @@
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="44"/>
+        <v>92</v>
+      </c>
+      <c r="B21" s="53"/>
       <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2808,18 +2866,18 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="33">
-        <f t="shared" ref="AH21:AH24" si="5">SUM(C21:AG21)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI21" s="33"/>
       <c r="AJ21" s="12"/>
       <c r="AK21" s="35" t="e">
-        <f>AH21/AI21</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL21"/>
       <c r="AM21" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AP21"/>
@@ -2830,9 +2888,9 @@
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="44"/>
+        <v>93</v>
+      </c>
+      <c r="B22" s="53"/>
       <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2865,7 +2923,7 @@
       <c r="AF22" s="10"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI22" s="33"/>
@@ -2876,10 +2934,10 @@
       </c>
       <c r="AL22"/>
       <c r="AM22" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AN22" s="1">
-        <f>AH44-AH9-AH25-AH31</f>
+        <f>AH51-AH9-AH32-AH38</f>
         <v>0</v>
       </c>
       <c r="AP22"/>
@@ -2890,9 +2948,9 @@
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="51"/>
+        <v>94</v>
+      </c>
+      <c r="B23" s="53"/>
       <c r="C23" s="20"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2925,7 +2983,7 @@
       <c r="AF23" s="10"/>
       <c r="AG23" s="16"/>
       <c r="AH23" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI23" s="33"/>
@@ -2936,7 +2994,7 @@
       </c>
       <c r="AL23"/>
       <c r="AM23" s="34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AP23"/>
@@ -2947,9 +3005,9 @@
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="51"/>
+        <v>101</v>
+      </c>
+      <c r="B24" s="44"/>
       <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2982,18 +3040,18 @@
       <c r="AF24" s="10"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AH24:AH31" si="7">SUM(C24:AG24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="33"/>
       <c r="AJ24" s="12"/>
       <c r="AK24" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f>AH24/AI24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24"/>
       <c r="AM24" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AN24" s="1"/>
       <c r="AP24"/>
@@ -3004,11 +3062,9 @@
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>8</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B25" s="44"/>
       <c r="C25" s="20"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3041,7 +3097,7 @@
       <c r="AF25" s="10"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI25" s="33"/>
@@ -3052,7 +3108,7 @@
       </c>
       <c r="AL25"/>
       <c r="AM25" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AN25" s="1">
         <f>AN22+AN24</f>
@@ -3061,9 +3117,9 @@
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="59"/>
+        <v>84</v>
+      </c>
+      <c r="B26" s="51"/>
       <c r="C26" s="20"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3096,7 +3152,7 @@
       <c r="AF26" s="10"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI26" s="33"/>
@@ -3107,15 +3163,15 @@
       </c>
       <c r="AL26"/>
       <c r="AM26" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AN26" s="1"/>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="59"/>
+      <c r="A27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="51"/>
       <c r="C27" s="20"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3148,7 +3204,7 @@
       <c r="AF27" s="10"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="33">
-        <f>SUM(C27:AG27)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI27" s="33"/>
@@ -3159,7 +3215,7 @@
       </c>
       <c r="AL27"/>
       <c r="AM27" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AN27" s="1">
         <f>AH8-AH9</f>
@@ -3168,9 +3224,9 @@
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="59"/>
+        <v>95</v>
+      </c>
+      <c r="B28" s="52"/>
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3203,7 +3259,7 @@
       <c r="AF28" s="10"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="33">
-        <f t="shared" ref="AH28" si="6">SUM(C28:AG28)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI28" s="33"/>
@@ -3214,15 +3270,15 @@
       </c>
       <c r="AL28"/>
       <c r="AM28" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="59"/>
+      <c r="A29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="52"/>
       <c r="C29" s="20"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3255,7 +3311,7 @@
       <c r="AF29" s="10"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="33">
-        <f>SUM(C29:AG29)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI29" s="33"/>
@@ -3266,15 +3322,15 @@
       </c>
       <c r="AL29"/>
       <c r="AM29" s="34" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="59"/>
+      <c r="A30" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="52"/>
       <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3307,7 +3363,7 @@
       <c r="AF30" s="10"/>
       <c r="AG30" s="16"/>
       <c r="AH30" s="33">
-        <f>SUM(C30:AG30)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI30" s="33"/>
@@ -3320,9 +3376,9 @@
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="60"/>
+        <v>98</v>
+      </c>
+      <c r="B31" s="52"/>
       <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3355,7 +3411,7 @@
       <c r="AF31" s="10"/>
       <c r="AG31" s="16"/>
       <c r="AH31" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI31" s="33"/>
@@ -3367,11 +3423,11 @@
       <c r="AL31"/>
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>10</v>
+      <c r="A32" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>8</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="4"/>
@@ -3418,9 +3474,9 @@
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="60"/>
+        <v>58</v>
+      </c>
+      <c r="B33" s="61"/>
       <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3466,9 +3522,9 @@
     </row>
     <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="61"/>
       <c r="C34" s="20"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3514,11 +3570,9 @@
     </row>
     <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>12</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B35" s="61"/>
       <c r="C35" s="20"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3551,7 +3605,7 @@
       <c r="AF35" s="10"/>
       <c r="AG35" s="16"/>
       <c r="AH35" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH35" si="8">SUM(C35:AG35)</f>
         <v>0</v>
       </c>
       <c r="AI35" s="33"/>
@@ -3563,10 +3617,10 @@
       <c r="AL35"/>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="59"/>
+      <c r="A36" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="61"/>
       <c r="C36" s="20"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3599,7 +3653,7 @@
       <c r="AF36" s="10"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:AG36)</f>
         <v>0</v>
       </c>
       <c r="AI36" s="33"/>
@@ -3611,10 +3665,10 @@
       <c r="AL36"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="59"/>
+      <c r="A37" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="61"/>
       <c r="C37" s="20"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3647,7 +3701,7 @@
       <c r="AF37" s="10"/>
       <c r="AG37" s="16"/>
       <c r="AH37" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C37:AG37)</f>
         <v>0</v>
       </c>
       <c r="AI37" s="33"/>
@@ -3656,12 +3710,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL37"/>
     </row>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="59"/>
+      <c r="A38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="62"/>
       <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3694,7 +3749,7 @@
       <c r="AF38" s="10"/>
       <c r="AG38" s="16"/>
       <c r="AH38" s="33">
-        <f>SUM(C38:AG38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI38" s="33"/>
@@ -3703,19 +3758,22 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL38"/>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="60"/>
+      <c r="A39" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>10</v>
+      </c>
       <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3741,29 +3799,29 @@
       <c r="AF39" s="10"/>
       <c r="AG39" s="16"/>
       <c r="AH39" s="33">
-        <f>SUM(C39:AG39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="12"/>
       <c r="AK39" s="35" t="e">
-        <f>AH39/AI39</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL39"/>
     </row>
     <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="43"/>
+        <v>11</v>
+      </c>
+      <c r="B40" s="62"/>
       <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3789,24 +3847,22 @@
       <c r="AF40" s="10"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="33">
-        <f>SUM(C40:AG40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="12"/>
       <c r="AK40" s="35" t="e">
-        <f>AH40/AI40</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL40"/>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>14</v>
-      </c>
+      <c r="A41" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="22"/>
       <c r="C41" s="20"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3839,7 +3895,7 @@
       <c r="AF41" s="10"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C41:AG41)</f>
         <v>0</v>
       </c>
       <c r="AI41" s="33"/>
@@ -3848,12 +3904,15 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL41"/>
     </row>
     <row r="42" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="59"/>
+        <v>42</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>12</v>
+      </c>
       <c r="C42" s="20"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3895,12 +3954,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL42"/>
     </row>
     <row r="43" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="60"/>
+        <v>43</v>
+      </c>
+      <c r="B43" s="61"/>
       <c r="C43" s="20"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3942,13 +4002,14 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL43"/>
     </row>
     <row r="44" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="46"/>
+      <c r="A44" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="61"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3984,10 +4045,343 @@
         <v>0</v>
       </c>
       <c r="AI44" s="33"/>
-      <c r="AJ44" s="13" t="s">
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="61"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="33">
+        <f>SUM(C45:AG45)</f>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="33"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="62"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="33">
+        <f>SUM(C46:AG46)</f>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="33"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="35" t="e">
+        <f>AH46/AI46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL46"/>
+    </row>
+    <row r="47" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="33">
+        <f>SUM(C47:AG47)</f>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="35" t="e">
+        <f>AH47/AI47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL47"/>
+    </row>
+    <row r="48" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="33"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="61"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="62"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="33"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="33"/>
+      <c r="AJ51" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AK44" s="35" t="e">
+      <c r="AK51" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3995,12 +4389,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B42:B46"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B8:B18"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B8:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
@@ -1401,7 +1401,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1417,8 +1417,8 @@
     <col min="38" max="38" width="7.5" style="2" customWidth="1"/>
     <col min="39" max="39" width="17.25" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12" style="17" customWidth="1"/>
+    <col min="42" max="42" width="12.625" style="17" customWidth="1"/>
     <col min="43" max="43" width="13.125" style="17" customWidth="1"/>
     <col min="44" max="44" width="14.125" style="17" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="16.125" style="17" bestFit="1" customWidth="1"/>
@@ -1971,16 +1971,16 @@
         <v>36</v>
       </c>
       <c r="AQ8" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AR8" s="40" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AS8" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT8" s="40" t="s">
         <v>66</v>
+      </c>
+      <c r="AT8" s="29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
@@ -2037,9 +2037,9 @@
       <c r="AO9" s="38"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
+      <c r="AR9" s="37"/>
       <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
+      <c r="AT9" s="41"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
@@ -2104,20 +2104,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="38" t="e">
-        <f>AH18/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR10" s="38" t="e">
         <f>AH12/AH9</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AR10" s="37" t="e">
+        <f>AH13/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS10" s="37" t="e">
-        <f>AH13/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT10" s="37" t="e">
         <f>AH34/AH32</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AT10" s="41">
+        <f>AH40</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
@@ -2183,19 +2183,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ11" s="42" t="e">
-        <f t="shared" si="4"/>
+        <f>AQ10/AQ9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR11" s="42" t="e">
-        <f t="shared" si="4"/>
+        <f>AR10/AR9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS11" s="42" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT11" s="42" t="e">
-        <f t="shared" si="4"/>
+        <f>AS10/AS9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT11" s="39" t="e">
+        <f>AT10/AT9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2250,25 +2250,25 @@
         <v>27</v>
       </c>
       <c r="AN12" s="29" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="AO12" s="29" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AP12" s="29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AQ12" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AR12" s="29" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AS12" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AT12" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
@@ -2321,17 +2321,20 @@
       <c r="AM13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37">
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37">
         <f>(AI9+AI32)*AN28/30</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="49">
-        <f>AS13*AN21*0.0075</f>
+      <c r="AS13" s="49">
+        <f>AR13*AN21*0.0075</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="41">
+        <f>AI15+AI17+AI13*0.5+AI37+AI41+AI19*0.3+AI47</f>
         <v>0</v>
       </c>
     </row>
@@ -2385,32 +2388,32 @@
       <c r="AM14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN14" s="41">
-        <f>AH40</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="38" t="e">
+      <c r="AN14" s="38" t="e">
         <f>(AH42+AH43+AH44)/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="50" t="e">
+      <c r="AO14" s="50" t="e">
         <f>AH41/(AH42+AH43+AH44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ14" s="39" t="e">
+      <c r="AP14" s="39" t="e">
         <f>AH24/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="37" t="e">
+      <c r="AQ14" s="37" t="e">
         <f>AH25/AH24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS14" s="37">
+      <c r="AR14" s="37">
         <f>AN22</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="49">
-        <f>AS14*AN21*0.0075</f>
+      <c r="AS14" s="49">
+        <f>AR14*AN21*0.0075</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="41">
+        <f>AH19*0.3+AH15+AH17+AH13*0.5+AH37+AH41+AH47</f>
         <v>0</v>
       </c>
     </row>
@@ -2480,12 +2483,12 @@
         <f>AQ14/AQ13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="39" t="e">
-        <f>AR14/AR13</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AR15" s="39"/>
       <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
+      <c r="AT15" s="39" t="e">
+        <f>AT14/AT13</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="25" t="s">
@@ -2538,16 +2541,16 @@
         <v>27</v>
       </c>
       <c r="AN16" s="29" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AO16" s="29" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AP16" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AQ16" s="29" t="s">
-        <v>87</v>
+      <c r="AQ16" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="AR16" s="29" t="s">
         <v>99</v>
@@ -2607,16 +2610,13 @@
       <c r="AM17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN17" s="41">
-        <f>AI15+AI17+AI13*0.5+AI37+AI41+AI19*0.3+AI47</f>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="37">
+        <f>AI8-AN26</f>
+        <v>0</v>
+      </c>
       <c r="AP17" s="39"/>
-      <c r="AQ17" s="37">
-        <f>AI8-AN26</f>
-        <v>0</v>
-      </c>
+      <c r="AQ17" s="38"/>
       <c r="AR17" s="39"/>
       <c r="AS17" s="39"/>
       <c r="AT17" s="41"/>
@@ -2671,21 +2671,21 @@
       <c r="AM18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="41">
-        <f>AH19*0.3+AH15+AH17+AH13*0.5+AH37+AH41+AH47</f>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="38" t="e">
+      <c r="AN18" s="38" t="e">
         <f>AH11/AH9</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AO18" s="37">
+        <f>AH8-AN26</f>
+        <v>0</v>
       </c>
       <c r="AP18" s="39" t="e">
         <f>AH26/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ18" s="37">
-        <f>AH8-AN26</f>
-        <v>0</v>
+      <c r="AQ18" s="38" t="e">
+        <f>AH18/AH9</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AR18" s="39" t="e">
         <f>AH28/AH9</f>
@@ -2881,7 +2881,6 @@
       </c>
       <c r="AN21" s="1"/>
       <c r="AP21"/>
-      <c r="AQ21"/>
       <c r="AR21"/>
       <c r="AS21"/>
       <c r="AT21"/>
@@ -2941,7 +2940,6 @@
         <v>0</v>
       </c>
       <c r="AP22"/>
-      <c r="AQ22"/>
       <c r="AR22"/>
       <c r="AS22"/>
       <c r="AT22"/>
@@ -2998,7 +2996,6 @@
       </c>
       <c r="AN23" s="1"/>
       <c r="AP23"/>
-      <c r="AQ23"/>
       <c r="AR23"/>
       <c r="AS23"/>
       <c r="AT23"/>
@@ -3055,7 +3052,6 @@
       </c>
       <c r="AN24" s="1"/>
       <c r="AP24"/>
-      <c r="AQ24"/>
       <c r="AR24"/>
       <c r="AS24"/>
       <c r="AT24"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>林勇</t>
   </si>
@@ -424,6 +424,14 @@
   </si>
   <si>
     <t>免费保养总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试乘试驾次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试乘试驾率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1395,13 +1403,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT51"/>
+  <dimension ref="A1:AT52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1656,7 +1664,7 @@
       <c r="AF4" s="10"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="33">
-        <f t="shared" ref="AH4:AH51" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH52" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="33"/>
@@ -1734,7 +1742,7 @@
       <c r="AI5" s="33"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="35" t="e">
-        <f t="shared" ref="AK5:AK51" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK52" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
@@ -1800,11 +1808,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="37">
-        <f>AH9+AH32</f>
+        <f>AH10+AH33</f>
         <v>0</v>
       </c>
       <c r="AO6" s="38" t="e">
-        <f>AH9/(AH9+AH32)</f>
+        <f>AH10/(AH10+AH33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="38" t="e">
@@ -1816,15 +1824,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="38" t="e">
-        <f>AH14/AH9</f>
+        <f>AH15/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="37" t="e">
-        <f>AH15/AH14</f>
+        <f>AH16/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="38" t="e">
-        <f>AH45/AH9</f>
+        <f>AH46/AH10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1985,7 +1993,7 @@
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="20"/>
@@ -2020,11 +2028,11 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="33">
-        <f t="shared" ref="AH9:AH14" si="3">SUM(C9:AG9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI9" s="33"/>
-      <c r="AJ9" s="12"/>
+      <c r="AJ9" s="13"/>
       <c r="AK9" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2043,7 +2051,7 @@
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="20"/>
@@ -2078,7 +2086,7 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AH10:AH15" si="3">SUM(C10:AG10)</f>
         <v>0</v>
       </c>
       <c r="AI10" s="33"/>
@@ -2092,37 +2100,37 @@
         <v>34</v>
       </c>
       <c r="AN10" s="37" t="e">
-        <f>AH46/AH45</f>
+        <f>AH47/AH46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="38" t="e">
-        <f>AH16/AH9</f>
+        <f>AH17/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="37" t="e">
-        <f>AH17/AH16</f>
+        <f>AH18/AH17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="38" t="e">
-        <f>AH12/AH9</f>
+        <f>AH13/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="37" t="e">
-        <f>AH13/AH9</f>
+        <f>AH14/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="37" t="e">
-        <f>AH34/AH32</f>
+        <f>AH35/AH33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" s="41">
-        <f>AH40</f>
+        <f>AH41</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="20"/>
@@ -2171,7 +2179,7 @@
         <v>60</v>
       </c>
       <c r="AN11" s="42" t="e">
-        <f t="shared" ref="AN11:AT11" si="4">AN10/AN9</f>
+        <f t="shared" ref="AN11:AP11" si="4">AN10/AN9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO11" s="42" t="e">
@@ -2201,7 +2209,7 @@
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="20"/>
@@ -2273,7 +2281,7 @@
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="20"/>
@@ -2326,7 +2334,7 @@
       <c r="AP13" s="39"/>
       <c r="AQ13" s="37"/>
       <c r="AR13" s="37">
-        <f>(AI9+AI32)*AN28/30</f>
+        <f>(AI10+AI33)*AN28/30</f>
         <v>0</v>
       </c>
       <c r="AS13" s="49">
@@ -2334,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="AT13" s="41">
-        <f>AI15+AI17+AI13*0.5+AI37+AI41+AI19*0.3+AI47</f>
+        <f>AI16+AI18+AI14*0.5+AI38+AI42+AI20*0.3+AI48</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>45</v>
+      <c r="A14" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="20"/>
@@ -2389,19 +2397,19 @@
         <v>34</v>
       </c>
       <c r="AN14" s="38" t="e">
-        <f>(AH42+AH43+AH44)/AH9</f>
+        <f>(AH43+AH44+AH45)/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO14" s="50" t="e">
-        <f>AH41/(AH42+AH43+AH44)</f>
+        <f>AH42/(AH43+AH44+AH45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="39" t="e">
-        <f>AH24/AH9</f>
+        <f>AH25/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="37" t="e">
-        <f>AH25/AH24</f>
+        <f>AH26/AH25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="37">
@@ -2413,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="AT14" s="41">
-        <f>AH19*0.3+AH15+AH17+AH13*0.5+AH37+AH41+AH47</f>
+        <f>AH20*0.3+AH16+AH18+AH14*0.5+AH38+AH42+AH48</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>46</v>
+      <c r="A15" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="20"/>
@@ -2454,7 +2462,7 @@
       <c r="AF15" s="10"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15" s="33"/>
@@ -2491,8 +2499,8 @@
       </c>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="25" t="s">
-        <v>48</v>
+      <c r="A16" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="20"/>
@@ -2527,7 +2535,7 @@
       <c r="AF16" s="10"/>
       <c r="AG16" s="16"/>
       <c r="AH16" s="33">
-        <f>SUM(C16:AG16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI16" s="33"/>
@@ -2558,13 +2566,15 @@
       <c r="AS16" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AT16" s="29"/>
+      <c r="AT16" s="29" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="65"/>
+      <c r="A17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="64"/>
       <c r="C17" s="20"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2597,7 +2607,7 @@
       <c r="AF17" s="10"/>
       <c r="AG17" s="16"/>
       <c r="AH17" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:AG17)</f>
         <v>0</v>
       </c>
       <c r="AI17" s="33"/>
@@ -2619,13 +2629,13 @@
       <c r="AQ17" s="38"/>
       <c r="AR17" s="39"/>
       <c r="AS17" s="39"/>
-      <c r="AT17" s="41"/>
+      <c r="AT17" s="39"/>
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="27"/>
+      <c r="A18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="65"/>
       <c r="C18" s="20"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2658,7 +2668,7 @@
       <c r="AF18" s="10"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="33">
-        <f>SUM(C18:AG18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI18" s="33"/>
@@ -2672,7 +2682,7 @@
         <v>34</v>
       </c>
       <c r="AN18" s="38" t="e">
-        <f>AH11/AH9</f>
+        <f>AH12/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO18" s="37">
@@ -2680,30 +2690,31 @@
         <v>0</v>
       </c>
       <c r="AP18" s="39" t="e">
-        <f>AH26/AH9</f>
+        <f>AH27/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ18" s="38" t="e">
-        <f>AH18/AH9</f>
+        <f>AH19/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR18" s="39" t="e">
-        <f>AH28/AH9</f>
+        <f>AH29/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS18" s="39" t="e">
-        <f>AH30/AH45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT18" s="41"/>
+        <f>AH31/AH46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT18" s="39" t="e">
+        <f>AH9/AO18</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="27"/>
       <c r="C19" s="20"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2766,20 +2777,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR19" s="39" t="e">
-        <f t="shared" ref="AR19:AS19" si="5">AR18/AR17</f>
+        <f t="shared" ref="AR19:AT19" si="5">AR18/AR17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS19" s="39" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT19" s="39"/>
+      <c r="AT19" s="39" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="53"/>
+        <v>90</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2812,7 +2828,7 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="33">
-        <f t="shared" ref="AH20:AH23" si="6">SUM(C20:AG20)</f>
+        <f>SUM(C20:AG20)</f>
         <v>0</v>
       </c>
       <c r="AI20" s="33"/>
@@ -2831,7 +2847,7 @@
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="20"/>
@@ -2866,7 +2882,7 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AH21:AH24" si="6">SUM(C21:AG21)</f>
         <v>0</v>
       </c>
       <c r="AI21" s="33"/>
@@ -2887,7 +2903,7 @@
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="20"/>
@@ -2936,7 +2952,7 @@
         <v>67</v>
       </c>
       <c r="AN22" s="1">
-        <f>AH51-AH9-AH32-AH38</f>
+        <f>AH52-AH10-AH33-AH39</f>
         <v>0</v>
       </c>
       <c r="AP22"/>
@@ -2946,7 +2962,7 @@
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="20"/>
@@ -3002,9 +3018,9 @@
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="44"/>
+        <v>94</v>
+      </c>
+      <c r="B24" s="53"/>
       <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3037,13 +3053,13 @@
       <c r="AF24" s="10"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="33">
-        <f t="shared" ref="AH24:AH31" si="7">SUM(C24:AG24)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI24" s="33"/>
       <c r="AJ24" s="12"/>
       <c r="AK24" s="35" t="e">
-        <f>AH24/AI24</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24"/>
@@ -3058,7 +3074,7 @@
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="20"/>
@@ -3093,13 +3109,13 @@
       <c r="AF25" s="10"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AH25:AH32" si="7">SUM(C25:AG25)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="33"/>
       <c r="AJ25" s="12"/>
       <c r="AK25" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f>AH25/AI25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25"/>
@@ -3113,9 +3129,9 @@
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="51"/>
+        <v>102</v>
+      </c>
+      <c r="B26" s="44"/>
       <c r="C26" s="20"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3165,7 +3181,7 @@
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="51"/>
       <c r="C27" s="20"/>
@@ -3214,15 +3230,15 @@
         <v>69</v>
       </c>
       <c r="AN27" s="1">
-        <f>AH8-AH9</f>
+        <f>AH8-AH10</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="52"/>
+        <v>85</v>
+      </c>
+      <c r="B28" s="51"/>
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3272,7 +3288,7 @@
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="20"/>
@@ -3324,7 +3340,7 @@
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="20"/>
@@ -3372,7 +3388,7 @@
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="52"/>
       <c r="C31" s="20"/>
@@ -3420,11 +3436,9 @@
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>8</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B32" s="52"/>
       <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3457,7 +3471,7 @@
       <c r="AF32" s="10"/>
       <c r="AG32" s="16"/>
       <c r="AH32" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI32" s="33"/>
@@ -3470,9 +3484,11 @@
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="61"/>
+        <v>50</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>8</v>
+      </c>
       <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3517,8 +3533,8 @@
       <c r="AL33"/>
     </row>
     <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="25" t="s">
-        <v>26</v>
+      <c r="A34" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="61"/>
       <c r="C34" s="20"/>
@@ -3553,7 +3569,7 @@
       <c r="AF34" s="10"/>
       <c r="AG34" s="16"/>
       <c r="AH34" s="33">
-        <f>SUM(C34:AG34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI34" s="33"/>
@@ -3565,8 +3581,8 @@
       <c r="AL34"/>
     </row>
     <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="24" t="s">
-        <v>51</v>
+      <c r="A35" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="61"/>
       <c r="C35" s="20"/>
@@ -3601,7 +3617,7 @@
       <c r="AF35" s="10"/>
       <c r="AG35" s="16"/>
       <c r="AH35" s="33">
-        <f t="shared" ref="AH35" si="8">SUM(C35:AG35)</f>
+        <f>SUM(C35:AG35)</f>
         <v>0</v>
       </c>
       <c r="AI35" s="33"/>
@@ -3613,8 +3629,8 @@
       <c r="AL35"/>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="25" t="s">
-        <v>52</v>
+      <c r="A36" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B36" s="61"/>
       <c r="C36" s="20"/>
@@ -3649,7 +3665,7 @@
       <c r="AF36" s="10"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="33">
-        <f>SUM(C36:AG36)</f>
+        <f t="shared" ref="AH36" si="8">SUM(C36:AG36)</f>
         <v>0</v>
       </c>
       <c r="AI36" s="33"/>
@@ -3662,7 +3678,7 @@
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="25" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B37" s="61"/>
       <c r="C37" s="20"/>
@@ -3709,10 +3725,10 @@
       <c r="AL37"/>
     </row>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="62"/>
+      <c r="A38" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="61"/>
       <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3745,7 +3761,7 @@
       <c r="AF38" s="10"/>
       <c r="AG38" s="16"/>
       <c r="AH38" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C38:AG38)</f>
         <v>0</v>
       </c>
       <c r="AI38" s="33"/>
@@ -3757,12 +3773,10 @@
       <c r="AL38"/>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>10</v>
-      </c>
+      <c r="A39" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="62"/>
       <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3807,10 +3821,12 @@
       <c r="AL39"/>
     </row>
     <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="62"/>
+      <c r="A40" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>10</v>
+      </c>
       <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3855,10 +3871,10 @@
       <c r="AL40"/>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="22"/>
+      <c r="A41" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="62"/>
       <c r="C41" s="20"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3891,7 +3907,7 @@
       <c r="AF41" s="10"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="33">
-        <f>SUM(C41:AG41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI41" s="33"/>
@@ -3903,12 +3919,10 @@
       <c r="AL41"/>
     </row>
     <row r="42" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>12</v>
-      </c>
+      <c r="A42" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="22"/>
       <c r="C42" s="20"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3941,7 +3955,7 @@
       <c r="AF42" s="10"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C42:AG42)</f>
         <v>0</v>
       </c>
       <c r="AI42" s="33"/>
@@ -3954,9 +3968,11 @@
     </row>
     <row r="43" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="61"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>12</v>
+      </c>
       <c r="C43" s="20"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4002,7 +4018,7 @@
     </row>
     <row r="44" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="20"/>
@@ -4046,10 +4062,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL44"/>
     </row>
     <row r="45" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="25" t="s">
-        <v>56</v>
+      <c r="A45" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B45" s="61"/>
       <c r="C45" s="20"/>
@@ -4084,7 +4101,7 @@
       <c r="AF45" s="10"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="33">
-        <f>SUM(C45:AG45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI45" s="33"/>
@@ -4095,17 +4112,17 @@
       </c>
     </row>
     <row r="46" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="62"/>
+      <c r="A46" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="61"/>
       <c r="C46" s="20"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4137,16 +4154,15 @@
       <c r="AI46" s="33"/>
       <c r="AJ46" s="12"/>
       <c r="AK46" s="35" t="e">
-        <f>AH46/AI46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL46"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="47" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="43"/>
+        <v>57</v>
+      </c>
+      <c r="B47" s="62"/>
       <c r="C47" s="20"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4192,18 +4208,16 @@
     </row>
     <row r="48" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>14</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B48" s="43"/>
       <c r="C48" s="20"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4229,21 +4243,24 @@
       <c r="AF48" s="10"/>
       <c r="AG48" s="16"/>
       <c r="AH48" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C48:AG48)</f>
         <v>0</v>
       </c>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="12"/>
       <c r="AK48" s="35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH48/AI48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL48"/>
     </row>
     <row r="49" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="61"/>
+        <v>13</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>14</v>
+      </c>
       <c r="C49" s="20"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4288,9 +4305,9 @@
     </row>
     <row r="50" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="B50" s="61"/>
       <c r="C50" s="20"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4334,11 +4351,11 @@
       </c>
     </row>
     <row r="51" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="46"/>
+      <c r="A51" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="62"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4374,10 +4391,57 @@
         <v>0</v>
       </c>
       <c r="AI51" s="33"/>
-      <c r="AJ51" s="13" t="s">
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="33"/>
+      <c r="AJ52" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AK51" s="35" t="e">
+      <c r="AK52" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4385,12 +4449,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B43:B47"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B8:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
